--- a/src/test/resources/TruthTableCookIt.xlsx
+++ b/src/test/resources/TruthTableCookIt.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="2240" yWindow="2240" windowWidth="23360" windowHeight="13300" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="question" sheetId="2" r:id="rId1"/>
+    <sheet name="tests" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -694,9 +694,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B41" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B42" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B49" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B51" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B52" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B53" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B55" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B57" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B59" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A61" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -29882,227 +30105,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B61"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A33" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A34" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A37" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A39" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B41" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B42" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A44" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A47" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B49" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B51" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B52" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B53" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B55" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B57" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B59" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A61" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>